--- a/Example.xlsx
+++ b/Example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\I\Part Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\I\Part Database\LIVE VERSION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4210268D-3D1B-42DC-877A-67C91AEEBBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67614D35-99DA-4956-BCCE-3991B610E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
   <si>
     <t>Case</t>
   </si>
@@ -37,9 +37,6 @@
     <t>M3 8mm</t>
   </si>
   <si>
-    <t>Bottom</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
   </si>
   <si>
     <t>M3 5mm</t>
-  </si>
-  <si>
-    <t>Top</t>
   </si>
   <si>
     <t>M3 20mm</t>
@@ -724,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,21 +745,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -773,16 +767,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -790,16 +784,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -807,16 +801,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -824,16 +818,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -841,16 +835,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -858,16 +852,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -875,16 +869,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -892,16 +886,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -909,16 +903,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -926,16 +920,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -943,16 +937,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -960,16 +954,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -977,16 +971,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -994,16 +988,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1011,16 +1005,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1028,16 +1022,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1045,16 +1039,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1062,16 +1056,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1079,16 +1073,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1096,16 +1090,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1113,16 +1107,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1130,16 +1124,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1147,16 +1141,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1164,16 +1158,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1181,16 +1175,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1198,16 +1192,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1215,16 +1209,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1232,16 +1226,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1249,16 +1243,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1266,16 +1260,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
+        <v>105</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1283,16 +1277,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1300,16 +1294,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
+        <v>111</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1317,16 +1311,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1334,16 +1328,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1351,16 +1345,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1368,16 +1362,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1385,16 +1379,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
         <v>56</v>
       </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1402,16 +1396,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1419,16 +1413,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1436,16 +1430,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1453,16 +1447,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1470,16 +1464,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1487,16 +1481,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1504,16 +1498,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1521,16 +1515,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1538,16 +1532,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1555,16 +1549,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1572,16 +1566,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1589,16 +1583,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1606,16 +1600,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1623,16 +1617,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1640,16 +1634,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1657,16 +1651,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1674,16 +1668,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
+        <v>77</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1691,16 +1685,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -1708,16 +1702,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1725,16 +1719,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1742,16 +1736,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1759,16 +1753,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -1776,16 +1770,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1793,16 +1787,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1810,16 +1804,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -1827,16 +1821,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -1844,16 +1838,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" t="s">
-        <v>56</v>
+        <v>113</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1861,16 +1855,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" t="s">
-        <v>56</v>
+        <v>95</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <v>2</v>
